--- a/assets/img/shop page/Book1.xlsx
+++ b/assets/img/shop page/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>p-audio</t>
   </si>
@@ -268,123 +268,6 @@
   </si>
   <si>
     <t>BOSCH CELLING SP.O606</t>
-  </si>
-  <si>
-    <t>HORN</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>LMT</t>
-  </si>
-  <si>
-    <t>BOX MAIN</t>
-  </si>
-  <si>
-    <t>BOX  RETURN</t>
-  </si>
-  <si>
-    <t>BOX SITE</t>
-  </si>
-  <si>
-    <t>AMPLIFIRE MAIN</t>
-  </si>
-  <si>
-    <t>AMPLIFIRE RETURN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPLIFIRE SITE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STABILIZER </t>
-  </si>
-  <si>
-    <t>BOARD</t>
-  </si>
-  <si>
-    <t>MIKE CORDLESS+BATRY</t>
-  </si>
-  <si>
-    <t>MIKE VOCAL</t>
-  </si>
-  <si>
-    <t>MIKE RYTHEM</t>
-  </si>
-  <si>
-    <t>MIKE EXTRA MUSIC</t>
-  </si>
-  <si>
-    <t>CHANNEL-XLR</t>
-  </si>
-  <si>
-    <t>CHANNEL MS</t>
-  </si>
-  <si>
-    <t>ATTACHER-P-P</t>
-  </si>
-  <si>
-    <t>ATTACHER EXLR</t>
-  </si>
-  <si>
-    <t>RCA</t>
-  </si>
-  <si>
-    <t>MIXING COUNCIL</t>
-  </si>
-  <si>
-    <t>EFFECTS</t>
-  </si>
-  <si>
-    <t>MIKE STAND</t>
-  </si>
-  <si>
-    <t>SPEAKER STAND</t>
-  </si>
-  <si>
-    <t>CASSTEL PLAYER</t>
-  </si>
-  <si>
-    <t>CASSTEL RECORDER</t>
-  </si>
-  <si>
-    <t>CASSTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HORN-WIRE </t>
-  </si>
-  <si>
-    <t>BOX-WIRE</t>
-  </si>
-  <si>
-    <t>EQILIZER</t>
-  </si>
-  <si>
-    <t>DUCA</t>
-  </si>
-  <si>
-    <t>NAME PLATE</t>
-  </si>
-  <si>
-    <t>TOOLS</t>
-  </si>
-  <si>
-    <t>PLASTIC TRIPAL</t>
-  </si>
-  <si>
-    <t>BANNER</t>
-  </si>
-  <si>
-    <t>RASSAI</t>
-  </si>
-  <si>
-    <t>BATRY+BATRY CLIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE STAND </t>
-  </si>
-  <si>
-    <t>DAIRY STAND</t>
   </si>
 </sst>
 </file>
@@ -428,13 +311,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,61 +617,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="3:19">
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="4" spans="3:19">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4"/>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="3:19">
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="4"/>
       <c r="K5" t="s">
         <v>25</v>
       </c>
@@ -800,14 +686,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="4"/>
       <c r="K6" t="s">
         <v>26</v>
       </c>
@@ -822,10 +708,10 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -840,10 +726,10 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="M8" t="s">
@@ -891,39 +777,39 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="O14" s="2" t="s">
+      <c r="M14" s="4"/>
+      <c r="O14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="R14" s="2" t="s">
+      <c r="P14" s="4"/>
+      <c r="R14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" t="s">
@@ -1021,21 +907,21 @@
       </c>
     </row>
     <row r="23" spans="3:18">
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="4"/>
       <c r="J24" t="s">
         <v>0</v>
       </c>
@@ -1098,13 +984,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:G24"/>
@@ -1121,6 +1000,13 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1129,215 +1015,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A4:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
